--- a/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/Fundamentação Teórica Gráficos.xlsx
+++ b/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/Fundamentação Teórica Gráficos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B14AF550-C31B-4B8C-AA19-F3FA753D9C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1E5293-B8D2-4E09-8A4C-CA8A33C5CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,10 +415,10 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,6 +426,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,28 +478,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,17 +496,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,15 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,61 +550,37 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +603,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1575,7 +1575,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1607,7 +1607,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ÍNDICE DE COBERTURA DE COLETA DE RSU NO BRASIL E REGIÕES (%)</a:t>
+              <a:t>Índice de cobertura de coleta de RSU no Brasil e regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2492,7 +2492,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2524,7 +2524,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DISTRIBUIÇÃO DOS MUNICÍPIOS COM INICIATIVAS DE COLETA SELETIVA NO BRASIL E REGIÕES (%)</a:t>
+              <a:t>Distribuição dos municípios com iniciativas de coleta seletiva no Brasil e regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3128,7 +3128,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3160,7 +3160,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>COLETA DE RSU NO BRASIL E REGIÕES</a:t>
+              <a:t>Coleta de RSU no Brasil e regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3764,7 +3764,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3796,7 +3796,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DISPOSIÇÃO FINAL DE RSU NO BRASIL E REGIÕES (%)</a:t>
+              <a:t>Disposição final de RSU no Brasil e regiões (%)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4455,7 +4455,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4487,7 +4487,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>NÚMERO DE MUNICÍPIOS POR TIPO DE DISPOSIÇÃO FINAL ADOTADA</a:t>
+              <a:t>Número de municípios por tipo de disposição final dos resíduos sólidos urbanos adotada</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5197,7 +5197,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5229,7 +5229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RECURSOS APLICADOS NOS SERVIÇOS DE LIMPEZA URBANA E MANEJOS DE RESÍDUOS SÓLIDOS URBANOS NO BRASIL E REGIÕES</a:t>
+              <a:t>Recursos aplicados nos serviços de limpeza urbana e manejos de resíduos sólidos urbanos no Brasil e regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5721,7 +5721,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5753,7 +5753,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>EMPREGOS DIRETOS GERADOS PELO SETOR DE LIMPEZA URBANA NO BRASIL E REGIÕES</a:t>
+              <a:t>Empregos diretos gerados pelo setor de limpeza urbana no Brasil e regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5803,7 +5803,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>R$ 27,320.00</c:v>
+                  <c:v>R$ 27.320,00</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>EMPREGOS DIRETOS GERADOS PELO SETOR DE LIMPEZA URBANA NO BRASIL E REGIÕES</c:v>
@@ -6262,7 +6262,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6294,7 +6294,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>COLETA DE RCD PELOS MUNICÍPIOS NAS REGIÕES			</a:t>
+              <a:t>Coleta de RCD pelos municípios nas regiões</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6338,23 +6338,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$B$72:$B$76</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>R$ 27,320.00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>EMPREGOS DIRETOS GERADOS PELO SETOR DE LIMPEZA URBANA NO BRASIL E REGIÕES</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EMPREGOS GERADOS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6425,25 +6408,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$77:$A$83</c:f>
+              <c:f>Planilha1!$A$101:$A$106</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Centro-Oeste</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>Centro-Oeste</c:v>
+                  <c:v>Norte</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Norte</c:v>
+                  <c:v>Nordeste</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Nordeste</c:v>
+                  <c:v>Sudeste</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sudeste</c:v>
+                  <c:v>Sul</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sul</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Brasil</c:v>
                 </c:pt>
               </c:strCache>
@@ -6451,34 +6434,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$77:$B$83</c:f>
+              <c:f>Planilha1!$B$101:$B$106</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5270965</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>27915</c:v>
+                  <c:v>1812955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24587</c:v>
+                  <c:v>9046890</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98035</c:v>
+                  <c:v>24496975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143146</c:v>
+                  <c:v>6369615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40896</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>334579</c:v>
+                  <c:v>46997400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B054-453A-9539-C0442CF19B23}"/>
+              <c16:uniqueId val="{00000002-F44A-45CE-B42A-43AC528EBF76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6720,7 +6703,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11728,15 +11711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12345,7 +12328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
@@ -12360,106 +12343,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="48"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="98">
         <v>1.022</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="98">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="98">
         <v>0.97099999999999997</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="98">
         <v>1.262</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="98">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="94">
         <v>1.0669999999999999</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
@@ -12467,14 +12450,14 @@
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="97"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="47" t="s">
@@ -12486,15 +12469,15 @@
       <c r="C12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="48"/>
-      <c r="B13" s="54"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="48"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10"/>
     </row>
@@ -12505,10 +12488,10 @@
       <c r="B14" s="5">
         <v>5780820</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="92">
         <v>350.3</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
     </row>
@@ -12519,10 +12502,10 @@
       <c r="B15" s="5">
         <v>4982940</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="90">
         <v>266.89999999999998</v>
       </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
@@ -12533,10 +12516,10 @@
       <c r="B16" s="4">
         <v>16575614</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="90">
         <v>288.89999999999998</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
@@ -12547,10 +12530,10 @@
       <c r="B17" s="4">
         <v>40249087</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="90">
         <v>452.2</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
@@ -12561,10 +12544,10 @@
       <c r="B18" s="4">
         <v>8491375</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="90">
         <v>281.2</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
@@ -12575,22 +12558,22 @@
       <c r="B19" s="4">
         <v>76079836</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="90">
         <v>359.3</v>
       </c>
-      <c r="D19" s="71"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="72"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="73"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="47" t="s">
@@ -12599,102 +12582,102 @@
       <c r="B22" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="48"/>
       <c r="B23" s="47"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="78">
         <v>0.93899999999999995</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="78">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="78">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="78">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="78">
         <v>0.95699999999999996</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="85">
         <v>0.92200000000000004</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="47" t="s">
@@ -12706,15 +12689,15 @@
       <c r="C33" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="11"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="48"/>
-      <c r="B34" s="54"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="48"/>
-      <c r="D34" s="55"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
     </row>
@@ -12725,10 +12708,10 @@
       <c r="B35" s="14">
         <v>0.505</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="88">
         <v>0.495</v>
       </c>
-      <c r="D35" s="81"/>
+      <c r="D35" s="89"/>
       <c r="E35" s="3"/>
       <c r="F35" s="13"/>
     </row>
@@ -12739,10 +12722,10 @@
       <c r="B36" s="14">
         <v>0.65300000000000002</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="83">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D36" s="76"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -12753,10 +12736,10 @@
       <c r="B37" s="16">
         <v>0.56699999999999995</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="83">
         <v>0.433</v>
       </c>
-      <c r="D37" s="76"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -12767,10 +12750,10 @@
       <c r="B38" s="16">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="83">
         <v>9.4E-2</v>
       </c>
-      <c r="D38" s="76"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
@@ -12781,10 +12764,10 @@
       <c r="B39" s="16">
         <v>0.91200000000000003</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="83">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D39" s="76"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -12795,37 +12778,37 @@
       <c r="B40" s="16">
         <v>0.74399999999999999</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="83">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D40" s="76"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="54" t="s">
+      <c r="C44" s="81"/>
+      <c r="D44" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="74"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="82"/>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7">
@@ -12959,48 +12942,48 @@
       <c r="D52" s="26"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="72"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="73"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="E56" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="85" t="s">
+      <c r="G56" s="76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="86"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
@@ -13102,17 +13085,17 @@
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="47" t="s">
@@ -13124,15 +13107,15 @@
       <c r="C65" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="53"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="11"/>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="48"/>
-      <c r="B66" s="54"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="55"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="12"/>
       <c r="F66" s="10"/>
     </row>
@@ -13143,10 +13126,10 @@
       <c r="B67" s="41">
         <v>1337</v>
       </c>
-      <c r="C67" s="87">
+      <c r="C67" s="68">
         <v>6.75</v>
       </c>
-      <c r="D67" s="88"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="3"/>
       <c r="F67" s="13"/>
     </row>
@@ -13157,10 +13140,10 @@
       <c r="B68" s="41">
         <v>1917</v>
       </c>
-      <c r="C68" s="92">
+      <c r="C68" s="66">
         <v>8.56</v>
       </c>
-      <c r="D68" s="93"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
@@ -13171,10 +13154,10 @@
       <c r="B69" s="42">
         <v>6230</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="66">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D69" s="93"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
@@ -13185,10 +13168,10 @@
       <c r="B70" s="42">
         <v>14764</v>
       </c>
-      <c r="C70" s="92">
+      <c r="C70" s="66">
         <v>13.82</v>
       </c>
-      <c r="D70" s="93"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
@@ -13199,10 +13182,10 @@
       <c r="B71" s="42">
         <v>3072</v>
       </c>
-      <c r="C71" s="92">
+      <c r="C71" s="66">
         <v>8.48</v>
       </c>
-      <c r="D71" s="93"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
@@ -13214,226 +13197,226 @@
         <f>SUM(B67:B71)</f>
         <v>27320</v>
       </c>
-      <c r="C72" s="92">
+      <c r="C72" s="66">
         <v>10.75</v>
       </c>
-      <c r="D72" s="93"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="48"/>
       <c r="B77" s="47"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="53"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="50"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="89">
+      <c r="B78" s="54">
         <v>27915</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="91"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="56"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="89">
+      <c r="B79" s="54">
         <v>24587</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="91"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="89">
+      <c r="B80" s="54">
         <v>98035</v>
       </c>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="91"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="56"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="89">
+      <c r="B81" s="54">
         <v>143146</v>
       </c>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="91"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="89">
+      <c r="B82" s="54">
         <v>40896</v>
       </c>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="91"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="56"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="94">
+      <c r="B83" s="57">
         <f>SUM(B78:F82)</f>
         <v>334579</v>
       </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="96"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="48"/>
       <c r="B89" s="47"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="53"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="50"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="89">
+      <c r="B90" s="54">
         <v>1220</v>
       </c>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="91"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="56"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="89">
+      <c r="B91" s="54">
         <v>2153</v>
       </c>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="91"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="56"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="89">
+      <c r="B92" s="54">
         <v>6446</v>
       </c>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="91"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="56"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="89">
+      <c r="B93" s="54">
         <v>16003</v>
       </c>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="91"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="56"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="89">
+      <c r="B94" s="54">
         <v>3292</v>
       </c>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="91"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="56"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="94">
+      <c r="B95" s="57">
         <f>SUM(B90:F94)</f>
         <v>29114</v>
       </c>
-      <c r="C95" s="95"/>
-      <c r="D95" s="95"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="96"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="59"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
@@ -13450,15 +13433,15 @@
       <c r="C99" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="53"/>
+      <c r="D99" s="50"/>
       <c r="E99" s="11"/>
       <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="48"/>
-      <c r="B100" s="54"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="48"/>
-      <c r="D100" s="55"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="12"/>
       <c r="F100" s="10"/>
     </row>
@@ -13469,10 +13452,10 @@
       <c r="B101" s="44">
         <v>5270965</v>
       </c>
-      <c r="C101" s="99">
+      <c r="C101" s="52">
         <v>319.38</v>
       </c>
-      <c r="D101" s="100"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="3"/>
       <c r="F101" s="13"/>
     </row>
@@ -13483,10 +13466,10 @@
       <c r="B102" s="44">
         <v>1812955</v>
       </c>
-      <c r="C102" s="97">
+      <c r="C102" s="45">
         <v>97.09</v>
       </c>
-      <c r="D102" s="98"/>
+      <c r="D102" s="46"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
@@ -13497,10 +13480,10 @@
       <c r="B103" s="43">
         <v>9046890</v>
       </c>
-      <c r="C103" s="97">
+      <c r="C103" s="45">
         <v>157.68</v>
       </c>
-      <c r="D103" s="98"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
@@ -13511,10 +13494,10 @@
       <c r="B104" s="43">
         <v>24496975</v>
       </c>
-      <c r="C104" s="97">
+      <c r="C104" s="45">
         <v>275.20999999999998</v>
       </c>
-      <c r="D104" s="98"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
@@ -13525,10 +13508,10 @@
       <c r="B105" s="43">
         <v>6369615</v>
       </c>
-      <c r="C105" s="97">
+      <c r="C105" s="45">
         <v>210.97</v>
       </c>
-      <c r="D105" s="98"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
@@ -13540,61 +13523,41 @@
         <f>SUM(B101:B105)</f>
         <v>46997400</v>
       </c>
-      <c r="C106" s="97">
+      <c r="C106" s="45">
         <v>221.19</v>
       </c>
-      <c r="D106" s="98"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A43:G43"/>
@@ -13611,32 +13574,52 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
